--- a/xlsx/政策_政策_计划_浏览条目正文[c]_intext.xlsx
+++ b/xlsx/政策_政策_计划_浏览条目正文[c]_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>知覺</t>
+    <t>知觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>解決問題</t>
+    <t>解决问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
   </si>
   <si>
-    <t>費尼斯·蓋吉</t>
+    <t>费尼斯·盖吉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
   </si>
   <si>
-    <t>亨利·莫萊森</t>
+    <t>亨利·莫莱森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>斯特魯普效應</t>
+    <t>斯特鲁普效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>魏氏智力測驗</t>
+    <t>魏氏智力测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%96%E5%8A%83_(%E5%B0%8F%E5%93%81)</t>
   </si>
   <si>
-    <t>策劃 (小品)</t>
+    <t>策划 (小品)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
 </sst>
 </file>
